--- a/NameList.xlsx
+++ b/NameList.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\d drive\Corp\RPS\CTS\CDE21ID001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{738C5075-3288-4A0A-9E5D-60AC063BAC19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB72D9EC-D030-4C35-90B4-89542BF1337F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{95322295-4382-4E80-B8B4-36FAD54A8C94}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
   <si>
     <t>Emp ID</t>
   </si>
@@ -118,6 +119,26 @@
   </si>
   <si>
     <t>Si No</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claims Management
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mail order pharmacy
+</t>
+  </si>
+  <si>
+    <t>Pension management</t>
+  </si>
+  <si>
+    <t>Claims Management</t>
+  </si>
+  <si>
+    <t>Mail order pharmacy</t>
   </si>
 </sst>
 </file>
@@ -145,7 +166,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,8 +203,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -243,11 +294,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -268,6 +363,33 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -586,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D99DCCFD-DB0B-4919-8145-0D135799B191}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection sqref="A1:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -912,4 +1034,337 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D319A-F787-4F17-9D1E-DEB748235A28}">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="12.36328125" customWidth="1"/>
+    <col min="3" max="3" width="22.08984375" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>901160</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>901004</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>900818</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="3">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3">
+        <v>901224</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="3">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3">
+        <v>901298</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="3">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3">
+        <v>901327</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="3">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3">
+        <v>901330</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="3">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3">
+        <v>901299</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="3">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3">
+        <v>901057</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="3">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3">
+        <v>900967</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="3">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3">
+        <v>901007</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="3">
+        <v>14</v>
+      </c>
+      <c r="B13" s="3">
+        <v>901046</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="3">
+        <v>15</v>
+      </c>
+      <c r="B14" s="3">
+        <v>901284</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="3">
+        <v>16</v>
+      </c>
+      <c r="B15" s="3">
+        <v>901340</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="3">
+        <v>17</v>
+      </c>
+      <c r="B16" s="3">
+        <v>901392</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="3">
+        <v>18</v>
+      </c>
+      <c r="B17" s="3">
+        <v>901338</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="3">
+        <v>19</v>
+      </c>
+      <c r="B18" s="3">
+        <v>901409</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="3">
+        <v>20</v>
+      </c>
+      <c r="B19" s="3">
+        <v>901410</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="3">
+        <v>21</v>
+      </c>
+      <c r="B20" s="3">
+        <v>900927</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="3">
+        <v>22</v>
+      </c>
+      <c r="B21" s="3">
+        <v>901209</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="10"/>
+    </row>
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="3">
+        <v>23</v>
+      </c>
+      <c r="B22" s="3">
+        <v>900965</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="3">
+        <v>24</v>
+      </c>
+      <c r="B23" s="3">
+        <v>901388</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="3">
+        <v>25</v>
+      </c>
+      <c r="B24" s="3">
+        <v>901198</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D19:D21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>